--- a/AAII_Financials/Quarterly/YUANF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/YUANF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>50100</v>
+        <v>48800</v>
       </c>
       <c r="E8" s="3">
-        <v>44000</v>
+        <v>43000</v>
       </c>
       <c r="F8" s="3">
-        <v>50600</v>
+        <v>49400</v>
       </c>
       <c r="G8" s="3">
-        <v>49900</v>
+        <v>48600</v>
       </c>
       <c r="H8" s="3">
-        <v>69400</v>
+        <v>67700</v>
       </c>
       <c r="I8" s="3">
-        <v>32700</v>
+        <v>31900</v>
       </c>
       <c r="J8" s="3">
-        <v>32100</v>
+        <v>31300</v>
       </c>
       <c r="K8" s="3">
         <v>42100</v>
@@ -747,25 +747,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E9" s="3">
         <v>4000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J9" s="3">
         <v>4100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4200</v>
       </c>
       <c r="K9" s="3">
         <v>4000</v>
@@ -776,25 +776,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>46000</v>
+        <v>44900</v>
       </c>
       <c r="E10" s="3">
-        <v>39900</v>
+        <v>38900</v>
       </c>
       <c r="F10" s="3">
-        <v>46300</v>
+        <v>45200</v>
       </c>
       <c r="G10" s="3">
-        <v>45500</v>
+        <v>44400</v>
       </c>
       <c r="H10" s="3">
-        <v>65400</v>
+        <v>63800</v>
       </c>
       <c r="I10" s="3">
-        <v>28600</v>
+        <v>27900</v>
       </c>
       <c r="J10" s="3">
-        <v>27900</v>
+        <v>27200</v>
       </c>
       <c r="K10" s="3">
         <v>38100</v>
@@ -821,13 +821,13 @@
         <v>2800</v>
       </c>
       <c r="E12" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F12" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G12" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H12" s="3">
         <v>2700</v>
@@ -836,7 +836,7 @@
         <v>2800</v>
       </c>
       <c r="J12" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K12" s="3">
         <v>3000</v>
@@ -944,25 +944,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>37400</v>
+        <v>36500</v>
       </c>
       <c r="E17" s="3">
-        <v>40400</v>
+        <v>39400</v>
       </c>
       <c r="F17" s="3">
-        <v>60300</v>
+        <v>58900</v>
       </c>
       <c r="G17" s="3">
-        <v>30600</v>
+        <v>29900</v>
       </c>
       <c r="H17" s="3">
-        <v>44000</v>
+        <v>43000</v>
       </c>
       <c r="I17" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="J17" s="3">
-        <v>28800</v>
+        <v>28100</v>
       </c>
       <c r="K17" s="3">
         <v>40400</v>
@@ -973,25 +973,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>12700</v>
+        <v>12400</v>
       </c>
       <c r="E18" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F18" s="3">
-        <v>-9700</v>
+        <v>-9500</v>
       </c>
       <c r="G18" s="3">
-        <v>19200</v>
+        <v>18800</v>
       </c>
       <c r="H18" s="3">
-        <v>25400</v>
+        <v>24800</v>
       </c>
       <c r="I18" s="3">
-        <v>19400</v>
+        <v>18900</v>
       </c>
       <c r="J18" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K18" s="3">
         <v>1800</v>
@@ -1102,25 +1102,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12700</v>
+        <v>12400</v>
       </c>
       <c r="E23" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F23" s="3">
-        <v>-9700</v>
+        <v>-9500</v>
       </c>
       <c r="G23" s="3">
-        <v>19200</v>
+        <v>18800</v>
       </c>
       <c r="H23" s="3">
-        <v>25400</v>
+        <v>24800</v>
       </c>
       <c r="I23" s="3">
-        <v>19400</v>
+        <v>18900</v>
       </c>
       <c r="J23" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K23" s="3">
         <v>1800</v>
@@ -1131,22 +1131,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E24" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F24" s="3">
         <v>-1700</v>
       </c>
       <c r="G24" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="H24" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="I24" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="J24" s="3">
         <v>700</v>
@@ -1189,25 +1189,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="E26" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F26" s="3">
-        <v>-8000</v>
+        <v>-7800</v>
       </c>
       <c r="G26" s="3">
-        <v>14200</v>
+        <v>13800</v>
       </c>
       <c r="H26" s="3">
-        <v>18800</v>
+        <v>18300</v>
       </c>
       <c r="I26" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="J26" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K26" s="3">
         <v>800</v>
@@ -1218,25 +1218,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="E27" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F27" s="3">
-        <v>-8000</v>
+        <v>-7800</v>
       </c>
       <c r="G27" s="3">
-        <v>14200</v>
+        <v>13800</v>
       </c>
       <c r="H27" s="3">
-        <v>18800</v>
+        <v>18300</v>
       </c>
       <c r="I27" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="J27" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K27" s="3">
         <v>800</v>
@@ -1294,7 +1294,7 @@
         <v>400</v>
       </c>
       <c r="J29" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K29" s="3">
         <v>300</v>
@@ -1392,22 +1392,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="E33" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F33" s="3">
-        <v>-8400</v>
+        <v>-8200</v>
       </c>
       <c r="G33" s="3">
-        <v>14100</v>
+        <v>13700</v>
       </c>
       <c r="H33" s="3">
-        <v>18900</v>
+        <v>18500</v>
       </c>
       <c r="I33" s="3">
-        <v>14900</v>
+        <v>14500</v>
       </c>
       <c r="J33" s="3">
         <v>1800</v>
@@ -1450,22 +1450,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="E35" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F35" s="3">
-        <v>-8400</v>
+        <v>-8200</v>
       </c>
       <c r="G35" s="3">
-        <v>14100</v>
+        <v>13700</v>
       </c>
       <c r="H35" s="3">
-        <v>18900</v>
+        <v>18500</v>
       </c>
       <c r="I35" s="3">
-        <v>14900</v>
+        <v>14500</v>
       </c>
       <c r="J35" s="3">
         <v>1800</v>
@@ -1539,25 +1539,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78200</v>
+        <v>76300</v>
       </c>
       <c r="E41" s="3">
-        <v>62900</v>
+        <v>61400</v>
       </c>
       <c r="F41" s="3">
-        <v>142700</v>
+        <v>139200</v>
       </c>
       <c r="G41" s="3">
-        <v>95400</v>
+        <v>93100</v>
       </c>
       <c r="H41" s="3">
-        <v>107400</v>
+        <v>104700</v>
       </c>
       <c r="I41" s="3">
-        <v>165800</v>
+        <v>161700</v>
       </c>
       <c r="J41" s="3">
-        <v>161200</v>
+        <v>157200</v>
       </c>
       <c r="K41" s="3">
         <v>97700</v>
@@ -1597,25 +1597,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>367000</v>
+        <v>358000</v>
       </c>
       <c r="E43" s="3">
-        <v>339100</v>
+        <v>330800</v>
       </c>
       <c r="F43" s="3">
-        <v>326300</v>
+        <v>318300</v>
       </c>
       <c r="G43" s="3">
-        <v>465400</v>
+        <v>454000</v>
       </c>
       <c r="H43" s="3">
-        <v>569400</v>
+        <v>555500</v>
       </c>
       <c r="I43" s="3">
-        <v>451100</v>
+        <v>440100</v>
       </c>
       <c r="J43" s="3">
-        <v>543700</v>
+        <v>530300</v>
       </c>
       <c r="K43" s="3">
         <v>559800</v>
@@ -1655,25 +1655,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="E45" s="3">
-        <v>18200</v>
+        <v>17700</v>
       </c>
       <c r="F45" s="3">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="G45" s="3">
-        <v>17400</v>
+        <v>17000</v>
       </c>
       <c r="H45" s="3">
-        <v>16700</v>
+        <v>16300</v>
       </c>
       <c r="I45" s="3">
-        <v>37800</v>
+        <v>36900</v>
       </c>
       <c r="J45" s="3">
-        <v>34200</v>
+        <v>33400</v>
       </c>
       <c r="K45" s="3">
         <v>129200</v>
@@ -1684,25 +1684,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>464700</v>
+        <v>453300</v>
       </c>
       <c r="E46" s="3">
-        <v>420200</v>
+        <v>409900</v>
       </c>
       <c r="F46" s="3">
-        <v>485800</v>
+        <v>473900</v>
       </c>
       <c r="G46" s="3">
-        <v>578200</v>
+        <v>564000</v>
       </c>
       <c r="H46" s="3">
-        <v>693500</v>
+        <v>676500</v>
       </c>
       <c r="I46" s="3">
-        <v>654700</v>
+        <v>638600</v>
       </c>
       <c r="J46" s="3">
-        <v>739100</v>
+        <v>720900</v>
       </c>
       <c r="K46" s="3">
         <v>786600</v>
@@ -1713,13 +1713,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E47" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F47" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>16</v>
@@ -1742,25 +1742,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>183400</v>
+        <v>178900</v>
       </c>
       <c r="E48" s="3">
-        <v>185100</v>
+        <v>180500</v>
       </c>
       <c r="F48" s="3">
-        <v>186700</v>
+        <v>182100</v>
       </c>
       <c r="G48" s="3">
-        <v>188600</v>
+        <v>183900</v>
       </c>
       <c r="H48" s="3">
-        <v>190100</v>
+        <v>185500</v>
       </c>
       <c r="I48" s="3">
-        <v>191900</v>
+        <v>187200</v>
       </c>
       <c r="J48" s="3">
-        <v>193800</v>
+        <v>189100</v>
       </c>
       <c r="K48" s="3">
         <v>195900</v>
@@ -1858,25 +1858,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E52" s="3">
         <v>30600</v>
       </c>
-      <c r="E52" s="3">
-        <v>31300</v>
-      </c>
       <c r="F52" s="3">
-        <v>33600</v>
+        <v>32800</v>
       </c>
       <c r="G52" s="3">
-        <v>31100</v>
+        <v>30400</v>
       </c>
       <c r="H52" s="3">
-        <v>30700</v>
+        <v>29900</v>
       </c>
       <c r="I52" s="3">
-        <v>33400</v>
+        <v>32600</v>
       </c>
       <c r="J52" s="3">
-        <v>36100</v>
+        <v>35200</v>
       </c>
       <c r="K52" s="3">
         <v>32300</v>
@@ -1916,25 +1916,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>682600</v>
+        <v>665900</v>
       </c>
       <c r="E54" s="3">
-        <v>639900</v>
+        <v>624200</v>
       </c>
       <c r="F54" s="3">
-        <v>709400</v>
+        <v>692000</v>
       </c>
       <c r="G54" s="3">
-        <v>797900</v>
+        <v>778300</v>
       </c>
       <c r="H54" s="3">
-        <v>914400</v>
+        <v>891900</v>
       </c>
       <c r="I54" s="3">
-        <v>879900</v>
+        <v>858400</v>
       </c>
       <c r="J54" s="3">
-        <v>969000</v>
+        <v>945200</v>
       </c>
       <c r="K54" s="3">
         <v>1014900</v>
@@ -1971,25 +1971,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>145500</v>
+        <v>141900</v>
       </c>
       <c r="E57" s="3">
-        <v>139400</v>
+        <v>136000</v>
       </c>
       <c r="F57" s="3">
-        <v>124500</v>
+        <v>121500</v>
       </c>
       <c r="G57" s="3">
-        <v>311200</v>
+        <v>303600</v>
       </c>
       <c r="H57" s="3">
-        <v>356100</v>
+        <v>347400</v>
       </c>
       <c r="I57" s="3">
-        <v>383000</v>
+        <v>373600</v>
       </c>
       <c r="J57" s="3">
-        <v>338100</v>
+        <v>329800</v>
       </c>
       <c r="K57" s="3">
         <v>88200</v>
@@ -2000,25 +2000,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>401200</v>
+        <v>391400</v>
       </c>
       <c r="E58" s="3">
-        <v>364600</v>
+        <v>355600</v>
       </c>
       <c r="F58" s="3">
-        <v>428100</v>
+        <v>417600</v>
       </c>
       <c r="G58" s="3">
-        <v>277500</v>
+        <v>270600</v>
       </c>
       <c r="H58" s="3">
-        <v>333800</v>
+        <v>325600</v>
       </c>
       <c r="I58" s="3">
-        <v>311300</v>
+        <v>303600</v>
       </c>
       <c r="J58" s="3">
-        <v>455400</v>
+        <v>444200</v>
       </c>
       <c r="K58" s="3">
         <v>812400</v>
@@ -2029,25 +2029,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18900</v>
+        <v>18400</v>
       </c>
       <c r="E59" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="F59" s="3">
-        <v>32100</v>
+        <v>31400</v>
       </c>
       <c r="G59" s="3">
-        <v>16400</v>
+        <v>16000</v>
       </c>
       <c r="H59" s="3">
-        <v>14700</v>
+        <v>14300</v>
       </c>
       <c r="I59" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="J59" s="3">
-        <v>74100</v>
+        <v>72300</v>
       </c>
       <c r="K59" s="3">
         <v>36700</v>
@@ -2058,25 +2058,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>565600</v>
+        <v>551700</v>
       </c>
       <c r="E60" s="3">
-        <v>514300</v>
+        <v>501700</v>
       </c>
       <c r="F60" s="3">
-        <v>584800</v>
+        <v>570400</v>
       </c>
       <c r="G60" s="3">
-        <v>605100</v>
+        <v>590200</v>
       </c>
       <c r="H60" s="3">
-        <v>704500</v>
+        <v>687200</v>
       </c>
       <c r="I60" s="3">
-        <v>705600</v>
+        <v>688300</v>
       </c>
       <c r="J60" s="3">
-        <v>867600</v>
+        <v>846300</v>
       </c>
       <c r="K60" s="3">
         <v>937300</v>
@@ -2087,25 +2087,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>66800</v>
+        <v>65100</v>
       </c>
       <c r="E61" s="3">
-        <v>70500</v>
+        <v>68700</v>
       </c>
       <c r="F61" s="3">
-        <v>72500</v>
+        <v>70700</v>
       </c>
       <c r="G61" s="3">
-        <v>132700</v>
+        <v>129500</v>
       </c>
       <c r="H61" s="3">
-        <v>164300</v>
+        <v>160300</v>
       </c>
       <c r="I61" s="3">
-        <v>148200</v>
+        <v>144600</v>
       </c>
       <c r="J61" s="3">
-        <v>118600</v>
+        <v>115700</v>
       </c>
       <c r="K61" s="3">
         <v>99800</v>
@@ -2232,25 +2232,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>632400</v>
+        <v>616800</v>
       </c>
       <c r="E66" s="3">
-        <v>584800</v>
+        <v>570500</v>
       </c>
       <c r="F66" s="3">
-        <v>657200</v>
+        <v>641100</v>
       </c>
       <c r="G66" s="3">
-        <v>737800</v>
+        <v>719700</v>
       </c>
       <c r="H66" s="3">
-        <v>868900</v>
+        <v>847500</v>
       </c>
       <c r="I66" s="3">
-        <v>853800</v>
+        <v>832800</v>
       </c>
       <c r="J66" s="3">
-        <v>986200</v>
+        <v>962000</v>
       </c>
       <c r="K66" s="3">
         <v>1037100</v>
@@ -2390,25 +2390,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-66100</v>
+        <v>-64500</v>
       </c>
       <c r="E72" s="3">
-        <v>-74900</v>
+        <v>-73000</v>
       </c>
       <c r="F72" s="3">
-        <v>-77300</v>
+        <v>-75400</v>
       </c>
       <c r="G72" s="3">
-        <v>-68900</v>
+        <v>-67200</v>
       </c>
       <c r="H72" s="3">
-        <v>-83000</v>
+        <v>-80900</v>
       </c>
       <c r="I72" s="3">
-        <v>-101900</v>
+        <v>-99400</v>
       </c>
       <c r="J72" s="3">
-        <v>-116800</v>
+        <v>-113900</v>
       </c>
       <c r="K72" s="3">
         <v>-121500</v>
@@ -2506,25 +2506,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50200</v>
+        <v>49000</v>
       </c>
       <c r="E76" s="3">
-        <v>55100</v>
+        <v>53800</v>
       </c>
       <c r="F76" s="3">
-        <v>52200</v>
+        <v>50900</v>
       </c>
       <c r="G76" s="3">
-        <v>60100</v>
+        <v>58600</v>
       </c>
       <c r="H76" s="3">
-        <v>45500</v>
+        <v>44400</v>
       </c>
       <c r="I76" s="3">
-        <v>26200</v>
+        <v>25500</v>
       </c>
       <c r="J76" s="3">
-        <v>-17200</v>
+        <v>-16700</v>
       </c>
       <c r="K76" s="3">
         <v>-22200</v>
@@ -2598,22 +2598,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="E81" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F81" s="3">
-        <v>-8400</v>
+        <v>-8200</v>
       </c>
       <c r="G81" s="3">
-        <v>14100</v>
+        <v>13700</v>
       </c>
       <c r="H81" s="3">
-        <v>18900</v>
+        <v>18500</v>
       </c>
       <c r="I81" s="3">
-        <v>14900</v>
+        <v>14500</v>
       </c>
       <c r="J81" s="3">
         <v>1800</v>
